--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/az/trans/syvbt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/ok/trans/syvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9040AA8A-5038-9845-92D8-C3B744BA47B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED63BB5-4B1F-674A-AB99-E87AE3084029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4203,7 +4203,7 @@
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
@@ -4363,66 +4363,46 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4432,20 +4412,41 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="143">
@@ -5008,7 +5009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5017,12 +5018,15 @@
     <col min="2" max="2" width="73.1640625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C1" s="73">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5030,57 +5034,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="29">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="29">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -6466,27 +6470,27 @@
       </c>
       <c r="B2" s="18">
         <f>ROUND('USA Values'!B3*'Share of VT by state'!$B$2,0)</f>
-        <v>11699</v>
+        <v>7176</v>
       </c>
       <c r="C2" s="18">
         <f>ROUND('USA Values'!C3*'Share of VT by state'!$B$2,0)</f>
-        <v>2655</v>
+        <v>1628</v>
       </c>
       <c r="D2" s="18">
         <f>ROUND('USA Values'!D3*'Share of VT by state'!$B$2,0)</f>
-        <v>5157115</v>
+        <v>3163257</v>
       </c>
       <c r="E2" s="18">
         <f>ROUND('USA Values'!E3*'Share of VT by state'!$B$2,0)</f>
-        <v>25947</v>
+        <v>15915</v>
       </c>
       <c r="F2" s="18">
         <f>ROUND('USA Values'!F3*'Share of VT by state'!$B$2,0)</f>
-        <v>10853</v>
+        <v>6657</v>
       </c>
       <c r="G2" s="18">
         <f>ROUND('USA Values'!G3*'Share of VT by state'!$B$2,0)</f>
-        <v>2031</v>
+        <v>1246</v>
       </c>
       <c r="H2" s="18">
         <f>ROUND('USA Values'!H3*'Share of VT by state'!$B$2,0)</f>
@@ -6500,19 +6504,19 @@
       </c>
       <c r="B3" s="18">
         <f>ROUND('USA Values'!B4*'Share of VT by state'!$B$3,0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="18">
         <f>ROUND('USA Values'!C4*'Share of VT by state'!$B$3,0)</f>
-        <v>1995</v>
+        <v>1134</v>
       </c>
       <c r="D3" s="18">
         <f>ROUND('USA Values'!D4*'Share of VT by state'!$B$3,0)</f>
-        <v>2184</v>
+        <v>1242</v>
       </c>
       <c r="E3" s="18">
         <f>ROUND('USA Values'!E4*'Share of VT by state'!$B$3,0)</f>
-        <v>17725</v>
+        <v>10077</v>
       </c>
       <c r="F3" s="18">
         <f>ROUND('USA Values'!F4*'Share of VT by state'!$B$3,0)</f>
@@ -6520,7 +6524,7 @@
       </c>
       <c r="G3" s="18">
         <f>ROUND('USA Values'!G4*'Share of VT by state'!$B$3,0)</f>
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="H3" s="18">
         <f>ROUND('USA Values'!H4*'Share of VT by state'!$B$3,0)</f>
@@ -6560,7 +6564,7 @@
         <v>1078</v>
       </c>
       <c r="B5" s="18">
-        <v>220.4</v>
+        <v>382.28</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -6569,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <v>69.599999999999994</v>
+        <v>120.72</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -6592,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="18">
-        <v>102510.72</v>
+        <v>146506.62</v>
       </c>
       <c r="E6" s="18">
-        <v>28913.279999999999</v>
+        <v>41322.379999999997</v>
       </c>
       <c r="F6" s="18">
         <v>0</v>
@@ -6618,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="18">
-        <v>163381</v>
+        <v>135630</v>
       </c>
       <c r="E7" s="18">
         <v>0</v>
@@ -6706,11 +6710,11 @@
       </c>
       <c r="C2" s="18">
         <f>ROUND('USA Values'!C12*'Share of VT by state'!$B$4,0)</f>
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="D2" s="18">
         <f>SUM(ROUND('USA Values'!D12*'Share of VT by state'!$B$4,0),ROUND('USA Values'!D13*'Share of VT by state'!$B$5,0))</f>
-        <v>235780</v>
+        <v>144622</v>
       </c>
       <c r="E2" s="18">
         <v>0</v>
@@ -6721,7 +6725,7 @@
       </c>
       <c r="G2" s="18">
         <f>ROUND('USA Values'!G12*'Share of VT by state'!$B$4,0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H2" s="18">
         <f>ROUND('USA Values'!H12*'Share of VT by state'!$B$4,0)</f>
@@ -6736,26 +6740,26 @@
       </c>
       <c r="B3">
         <f>ROUND('USA Values'!B13*'Share of VT by state'!$B$5,0)</f>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <f>ROUND('USA Values'!C13*'Share of VT by state'!$B$5,0)</f>
-        <v>755</v>
+        <v>463</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <f>SUM(ROUND('USA Values'!E13*'Share of VT by state'!$B$5,0),ROUND('USA Values'!E12*'Share of VT by state'!$B$4,0))</f>
-        <v>291213</v>
+        <v>178624</v>
       </c>
       <c r="F3">
         <f>ROUND('USA Values'!F13*'Share of VT by state'!$B$5,0)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <f>ROUND('USA Values'!G13*'Share of VT by state'!$B$5,0)</f>
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="H3">
         <f>ROUND('USA Values'!H13*'Share of VT by state'!$B$5,0)</f>
@@ -6810,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <v>353</v>
+        <v>612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6836,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6900,7 +6904,7 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <v>2.0400466742183099E-2</v>
+        <v>1.2513182117799551E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6908,7 +6912,7 @@
         <v>59</v>
       </c>
       <c r="B3">
-        <v>2.146522712651934E-2</v>
+        <v>1.2203554733636331E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6916,7 +6920,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>2.0399808451779581E-2</v>
+        <v>1.251282040385485E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6924,7 +6928,7 @@
         <v>61</v>
       </c>
       <c r="B5">
-        <v>2.0399808451779571E-2</v>
+        <v>1.251282040385485E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13543,44 +13547,44 @@
     </row>
     <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="87" spans="1:37" ht="15" customHeight="1">
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74"/>
-      <c r="L87" s="74"/>
-      <c r="M87" s="74"/>
-      <c r="N87" s="74"/>
-      <c r="O87" s="74"/>
-      <c r="P87" s="74"/>
-      <c r="Q87" s="74"/>
-      <c r="R87" s="74"/>
-      <c r="S87" s="74"/>
-      <c r="T87" s="74"/>
-      <c r="U87" s="74"/>
-      <c r="V87" s="74"/>
-      <c r="W87" s="74"/>
-      <c r="X87" s="74"/>
-      <c r="Y87" s="74"/>
-      <c r="Z87" s="74"/>
-      <c r="AA87" s="74"/>
-      <c r="AB87" s="74"/>
-      <c r="AC87" s="74"/>
-      <c r="AD87" s="74"/>
-      <c r="AE87" s="74"/>
-      <c r="AF87" s="74"/>
-      <c r="AG87" s="74"/>
-      <c r="AH87" s="74"/>
-      <c r="AI87" s="74"/>
-      <c r="AJ87" s="74"/>
-      <c r="AK87" s="74"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="75"/>
+      <c r="O87" s="75"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
+      <c r="W87" s="75"/>
+      <c r="X87" s="75"/>
+      <c r="Y87" s="75"/>
+      <c r="Z87" s="75"/>
+      <c r="AA87" s="75"/>
+      <c r="AB87" s="75"/>
+      <c r="AC87" s="75"/>
+      <c r="AD87" s="75"/>
+      <c r="AE87" s="75"/>
+      <c r="AF87" s="75"/>
+      <c r="AG87" s="75"/>
+      <c r="AH87" s="75"/>
+      <c r="AI87" s="75"/>
+      <c r="AJ87" s="75"/>
+      <c r="AK87" s="75"/>
     </row>
     <row r="88" spans="1:37" ht="15" customHeight="1">
       <c r="B88" s="30" t="s">
@@ -24193,44 +24197,44 @@
     </row>
     <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="118" spans="1:37" ht="15" customHeight="1">
-      <c r="B118" s="73" t="s">
+      <c r="B118" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="C118" s="74"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="74"/>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="74"/>
-      <c r="K118" s="74"/>
-      <c r="L118" s="74"/>
-      <c r="M118" s="74"/>
-      <c r="N118" s="74"/>
-      <c r="O118" s="74"/>
-      <c r="P118" s="74"/>
-      <c r="Q118" s="74"/>
-      <c r="R118" s="74"/>
-      <c r="S118" s="74"/>
-      <c r="T118" s="74"/>
-      <c r="U118" s="74"/>
-      <c r="V118" s="74"/>
-      <c r="W118" s="74"/>
-      <c r="X118" s="74"/>
-      <c r="Y118" s="74"/>
-      <c r="Z118" s="74"/>
-      <c r="AA118" s="74"/>
-      <c r="AB118" s="74"/>
-      <c r="AC118" s="74"/>
-      <c r="AD118" s="74"/>
-      <c r="AE118" s="74"/>
-      <c r="AF118" s="74"/>
-      <c r="AG118" s="74"/>
-      <c r="AH118" s="74"/>
-      <c r="AI118" s="74"/>
-      <c r="AJ118" s="74"/>
-      <c r="AK118" s="74"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="75"/>
+      <c r="G118" s="75"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
+      <c r="O118" s="75"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="75"/>
+      <c r="R118" s="75"/>
+      <c r="S118" s="75"/>
+      <c r="T118" s="75"/>
+      <c r="U118" s="75"/>
+      <c r="V118" s="75"/>
+      <c r="W118" s="75"/>
+      <c r="X118" s="75"/>
+      <c r="Y118" s="75"/>
+      <c r="Z118" s="75"/>
+      <c r="AA118" s="75"/>
+      <c r="AB118" s="75"/>
+      <c r="AC118" s="75"/>
+      <c r="AD118" s="75"/>
+      <c r="AE118" s="75"/>
+      <c r="AF118" s="75"/>
+      <c r="AG118" s="75"/>
+      <c r="AH118" s="75"/>
+      <c r="AI118" s="75"/>
+      <c r="AJ118" s="75"/>
+      <c r="AK118" s="75"/>
     </row>
     <row r="119" spans="1:37" ht="15" customHeight="1">
       <c r="B119" s="30" t="s">
@@ -29080,44 +29084,44 @@
     </row>
     <row r="66" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="67" spans="1:37" ht="15" customHeight="1">
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="74" t="s">
         <v>432</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="74"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="74"/>
-      <c r="R67" s="74"/>
-      <c r="S67" s="74"/>
-      <c r="T67" s="74"/>
-      <c r="U67" s="74"/>
-      <c r="V67" s="74"/>
-      <c r="W67" s="74"/>
-      <c r="X67" s="74"/>
-      <c r="Y67" s="74"/>
-      <c r="Z67" s="74"/>
-      <c r="AA67" s="74"/>
-      <c r="AB67" s="74"/>
-      <c r="AC67" s="74"/>
-      <c r="AD67" s="74"/>
-      <c r="AE67" s="74"/>
-      <c r="AF67" s="74"/>
-      <c r="AG67" s="74"/>
-      <c r="AH67" s="74"/>
-      <c r="AI67" s="74"/>
-      <c r="AJ67" s="74"/>
-      <c r="AK67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="75"/>
+      <c r="V67" s="75"/>
+      <c r="W67" s="75"/>
+      <c r="X67" s="75"/>
+      <c r="Y67" s="75"/>
+      <c r="Z67" s="75"/>
+      <c r="AA67" s="75"/>
+      <c r="AB67" s="75"/>
+      <c r="AC67" s="75"/>
+      <c r="AD67" s="75"/>
+      <c r="AE67" s="75"/>
+      <c r="AF67" s="75"/>
+      <c r="AG67" s="75"/>
+      <c r="AH67" s="75"/>
+      <c r="AI67" s="75"/>
+      <c r="AJ67" s="75"/>
+      <c r="AK67" s="75"/>
     </row>
     <row r="68" spans="1:37" ht="15" customHeight="1">
       <c r="B68" s="30" t="s">
@@ -34926,44 +34930,44 @@
     </row>
     <row r="78" spans="1:36" ht="16" customHeight="1" thickBot="1"/>
     <row r="79" spans="1:36">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="74" t="s">
         <v>457</v>
       </c>
-      <c r="B79" s="74"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="74"/>
-      <c r="T79" s="74"/>
-      <c r="U79" s="74"/>
-      <c r="V79" s="74"/>
-      <c r="W79" s="74"/>
-      <c r="X79" s="74"/>
-      <c r="Y79" s="74"/>
-      <c r="Z79" s="74"/>
-      <c r="AA79" s="74"/>
-      <c r="AB79" s="74"/>
-      <c r="AC79" s="74"/>
-      <c r="AD79" s="74"/>
-      <c r="AE79" s="74"/>
-      <c r="AF79" s="74"/>
-      <c r="AG79" s="74"/>
-      <c r="AH79" s="74"/>
-      <c r="AI79" s="74"/>
-      <c r="AJ79" s="74"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="75"/>
+      <c r="T79" s="75"/>
+      <c r="U79" s="75"/>
+      <c r="V79" s="75"/>
+      <c r="W79" s="75"/>
+      <c r="X79" s="75"/>
+      <c r="Y79" s="75"/>
+      <c r="Z79" s="75"/>
+      <c r="AA79" s="75"/>
+      <c r="AB79" s="75"/>
+      <c r="AC79" s="75"/>
+      <c r="AD79" s="75"/>
+      <c r="AE79" s="75"/>
+      <c r="AF79" s="75"/>
+      <c r="AG79" s="75"/>
+      <c r="AH79" s="75"/>
+      <c r="AI79" s="75"/>
+      <c r="AJ79" s="75"/>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="30" t="s">
@@ -54911,44 +54915,44 @@
       </c>
     </row>
     <row r="198" spans="1:37" ht="15" customHeight="1">
-      <c r="B198" s="73" t="s">
+      <c r="B198" s="74" t="s">
         <v>659</v>
       </c>
-      <c r="C198" s="74"/>
-      <c r="D198" s="74"/>
-      <c r="E198" s="74"/>
-      <c r="F198" s="74"/>
-      <c r="G198" s="74"/>
-      <c r="H198" s="74"/>
-      <c r="I198" s="74"/>
-      <c r="J198" s="74"/>
-      <c r="K198" s="74"/>
-      <c r="L198" s="74"/>
-      <c r="M198" s="74"/>
-      <c r="N198" s="74"/>
-      <c r="O198" s="74"/>
-      <c r="P198" s="74"/>
-      <c r="Q198" s="74"/>
-      <c r="R198" s="74"/>
-      <c r="S198" s="74"/>
-      <c r="T198" s="74"/>
-      <c r="U198" s="74"/>
-      <c r="V198" s="74"/>
-      <c r="W198" s="74"/>
-      <c r="X198" s="74"/>
-      <c r="Y198" s="74"/>
-      <c r="Z198" s="74"/>
-      <c r="AA198" s="74"/>
-      <c r="AB198" s="74"/>
-      <c r="AC198" s="74"/>
-      <c r="AD198" s="74"/>
-      <c r="AE198" s="74"/>
-      <c r="AF198" s="74"/>
-      <c r="AG198" s="74"/>
-      <c r="AH198" s="74"/>
-      <c r="AI198" s="74"/>
-      <c r="AJ198" s="74"/>
-      <c r="AK198" s="74"/>
+      <c r="C198" s="75"/>
+      <c r="D198" s="75"/>
+      <c r="E198" s="75"/>
+      <c r="F198" s="75"/>
+      <c r="G198" s="75"/>
+      <c r="H198" s="75"/>
+      <c r="I198" s="75"/>
+      <c r="J198" s="75"/>
+      <c r="K198" s="75"/>
+      <c r="L198" s="75"/>
+      <c r="M198" s="75"/>
+      <c r="N198" s="75"/>
+      <c r="O198" s="75"/>
+      <c r="P198" s="75"/>
+      <c r="Q198" s="75"/>
+      <c r="R198" s="75"/>
+      <c r="S198" s="75"/>
+      <c r="T198" s="75"/>
+      <c r="U198" s="75"/>
+      <c r="V198" s="75"/>
+      <c r="W198" s="75"/>
+      <c r="X198" s="75"/>
+      <c r="Y198" s="75"/>
+      <c r="Z198" s="75"/>
+      <c r="AA198" s="75"/>
+      <c r="AB198" s="75"/>
+      <c r="AC198" s="75"/>
+      <c r="AD198" s="75"/>
+      <c r="AE198" s="75"/>
+      <c r="AF198" s="75"/>
+      <c r="AG198" s="75"/>
+      <c r="AH198" s="75"/>
+      <c r="AI198" s="75"/>
+      <c r="AJ198" s="75"/>
+      <c r="AK198" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -79636,44 +79640,44 @@
     </row>
     <row r="274" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="275" spans="1:37" ht="15" customHeight="1">
-      <c r="B275" s="73" t="s">
+      <c r="B275" s="74" t="s">
         <v>920</v>
       </c>
-      <c r="C275" s="74"/>
-      <c r="D275" s="74"/>
-      <c r="E275" s="74"/>
-      <c r="F275" s="74"/>
-      <c r="G275" s="74"/>
-      <c r="H275" s="74"/>
-      <c r="I275" s="74"/>
-      <c r="J275" s="74"/>
-      <c r="K275" s="74"/>
-      <c r="L275" s="74"/>
-      <c r="M275" s="74"/>
-      <c r="N275" s="74"/>
-      <c r="O275" s="74"/>
-      <c r="P275" s="74"/>
-      <c r="Q275" s="74"/>
-      <c r="R275" s="74"/>
-      <c r="S275" s="74"/>
-      <c r="T275" s="74"/>
-      <c r="U275" s="74"/>
-      <c r="V275" s="74"/>
-      <c r="W275" s="74"/>
-      <c r="X275" s="74"/>
-      <c r="Y275" s="74"/>
-      <c r="Z275" s="74"/>
-      <c r="AA275" s="74"/>
-      <c r="AB275" s="74"/>
-      <c r="AC275" s="74"/>
-      <c r="AD275" s="74"/>
-      <c r="AE275" s="74"/>
-      <c r="AF275" s="74"/>
-      <c r="AG275" s="74"/>
-      <c r="AH275" s="74"/>
-      <c r="AI275" s="74"/>
-      <c r="AJ275" s="74"/>
-      <c r="AK275" s="74"/>
+      <c r="C275" s="75"/>
+      <c r="D275" s="75"/>
+      <c r="E275" s="75"/>
+      <c r="F275" s="75"/>
+      <c r="G275" s="75"/>
+      <c r="H275" s="75"/>
+      <c r="I275" s="75"/>
+      <c r="J275" s="75"/>
+      <c r="K275" s="75"/>
+      <c r="L275" s="75"/>
+      <c r="M275" s="75"/>
+      <c r="N275" s="75"/>
+      <c r="O275" s="75"/>
+      <c r="P275" s="75"/>
+      <c r="Q275" s="75"/>
+      <c r="R275" s="75"/>
+      <c r="S275" s="75"/>
+      <c r="T275" s="75"/>
+      <c r="U275" s="75"/>
+      <c r="V275" s="75"/>
+      <c r="W275" s="75"/>
+      <c r="X275" s="75"/>
+      <c r="Y275" s="75"/>
+      <c r="Z275" s="75"/>
+      <c r="AA275" s="75"/>
+      <c r="AB275" s="75"/>
+      <c r="AC275" s="75"/>
+      <c r="AD275" s="75"/>
+      <c r="AE275" s="75"/>
+      <c r="AF275" s="75"/>
+      <c r="AG275" s="75"/>
+      <c r="AH275" s="75"/>
+      <c r="AI275" s="75"/>
+      <c r="AJ275" s="75"/>
+      <c r="AK275" s="75"/>
     </row>
     <row r="276" spans="1:37" ht="15" customHeight="1">
       <c r="B276" s="30" t="s">
@@ -79763,43 +79767,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="86" t="s">
         <v>928</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
     </row>
     <row r="2" spans="1:37" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="31"/>
@@ -83062,27 +83066,27 @@
         <v>11961568</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="94" t="s">
+    <row r="35" spans="1:35" s="71" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A35" s="88" t="s">
         <v>963</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
       <c r="S35" s="54"/>
       <c r="T35" s="54"/>
       <c r="U35" s="54"/>
@@ -83096,1547 +83100,1547 @@
       <c r="AC35" s="54"/>
       <c r="AE35" s="55"/>
     </row>
-    <row r="36" spans="1:35" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="89"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
+    <row r="36" spans="1:35" s="71" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
     </row>
     <row r="37" spans="1:35" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="92" t="s">
         <v>964</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
     </row>
     <row r="38" spans="1:35" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="85" t="s">
         <v>965</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
     </row>
     <row r="39" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="76" t="s">
         <v>966</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
     </row>
     <row r="40" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="85" t="s">
         <v>967</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
     </row>
     <row r="41" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="85" t="s">
         <v>968</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
     </row>
     <row r="42" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
     </row>
     <row r="43" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="76" t="s">
         <v>970</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
     </row>
     <row r="44" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="76" t="s">
         <v>971</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
     </row>
     <row r="45" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="97" t="s">
         <v>972</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
     </row>
     <row r="46" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="85" t="s">
         <v>973</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
     </row>
     <row r="47" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="85" t="s">
         <v>974</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
     </row>
     <row r="48" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="85" t="s">
         <v>975</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
     </row>
     <row r="49" spans="1:18" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="85" t="s">
         <v>976</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
     </row>
     <row r="50" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="85" t="s">
         <v>977</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
     </row>
     <row r="51" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
     </row>
     <row r="52" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="96" t="s">
         <v>978</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
     </row>
     <row r="53" spans="1:18" s="70" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="97" t="s">
         <v>979</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
     </row>
     <row r="54" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="79" t="s">
         <v>980</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
     </row>
     <row r="55" spans="1:18" s="70" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A55" s="99" t="s">
+      <c r="A55" s="81" t="s">
         <v>981</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
     </row>
     <row r="56" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="79" t="s">
         <v>982</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
     </row>
     <row r="57" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="79" t="s">
         <v>983</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77"/>
     </row>
     <row r="58" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="88" t="s">
+      <c r="A58" s="98" t="s">
         <v>984</v>
       </c>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="77"/>
     </row>
     <row r="59" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
     </row>
     <row r="60" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="90" t="s">
         <v>985</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="77"/>
     </row>
     <row r="61" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="90" t="s">
         <v>986</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="77"/>
     </row>
     <row r="62" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="84" t="s">
         <v>987</v>
       </c>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="76"/>
-      <c r="O62" s="76"/>
-      <c r="P62" s="76"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77"/>
     </row>
     <row r="63" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="90" t="s">
+      <c r="A63" s="99" t="s">
         <v>988</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="76"/>
-      <c r="P63" s="76"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
     </row>
     <row r="64" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="79" t="s">
+      <c r="A64" s="80" t="s">
         <v>989</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="76"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="77"/>
     </row>
     <row r="65" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="79" t="s">
+      <c r="A65" s="80" t="s">
         <v>990</v>
       </c>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="76"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="77"/>
     </row>
     <row r="66" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="79" t="s">
+      <c r="A66" s="80" t="s">
         <v>991</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="76"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="76"/>
-      <c r="P66" s="76"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
+      <c r="O66" s="77"/>
+      <c r="P66" s="77"/>
     </row>
     <row r="67" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="79" t="s">
+      <c r="A67" s="80" t="s">
         <v>992</v>
       </c>
-      <c r="B67" s="76"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
-      <c r="K67" s="76"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="76"/>
-      <c r="P67" s="76"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="77"/>
     </row>
     <row r="68" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="84" t="s">
         <v>993</v>
       </c>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="76"/>
-      <c r="P68" s="76"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
     </row>
     <row r="69" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="79" t="s">
+      <c r="A69" s="80" t="s">
         <v>994</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
     </row>
     <row r="70" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="79" t="s">
+      <c r="A70" s="80" t="s">
         <v>995</v>
       </c>
-      <c r="B70" s="76"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="76"/>
-      <c r="L70" s="76"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="76"/>
-      <c r="P70" s="76"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="77"/>
     </row>
     <row r="71" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="79" t="s">
+      <c r="A71" s="80" t="s">
         <v>996</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="76"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
     </row>
     <row r="72" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="80" t="s">
         <v>997</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="76"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
     </row>
     <row r="73" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="80" t="s">
         <v>998</v>
       </c>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="76"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="76"/>
-      <c r="P73" s="76"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="77"/>
     </row>
     <row r="74" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="85" t="s">
+      <c r="A74" s="82" t="s">
         <v>999</v>
       </c>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="76"/>
-      <c r="O74" s="76"/>
-      <c r="P74" s="76"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="77"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="77"/>
+      <c r="P74" s="77"/>
     </row>
     <row r="75" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="84" t="s">
         <v>1000</v>
       </c>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="76"/>
-      <c r="O75" s="76"/>
-      <c r="P75" s="76"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
+      <c r="M75" s="77"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="77"/>
     </row>
     <row r="76" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="79" t="s">
         <v>1001</v>
       </c>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="77"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="77"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="77"/>
     </row>
     <row r="77" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="84" t="s">
+      <c r="A77" s="95" t="s">
         <v>1002</v>
       </c>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
     </row>
     <row r="78" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="94" t="s">
         <v>1003</v>
       </c>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="76"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="76"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="76"/>
-      <c r="O78" s="76"/>
-      <c r="P78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77"/>
     </row>
     <row r="79" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="95" t="s">
         <v>1004</v>
       </c>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="76"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="76"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="77"/>
+      <c r="M79" s="77"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="77"/>
     </row>
     <row r="80" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="84" t="s">
         <v>1005</v>
       </c>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="76"/>
-      <c r="M80" s="76"/>
-      <c r="N80" s="76"/>
-      <c r="O80" s="76"/>
-      <c r="P80" s="76"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
     </row>
     <row r="81" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="80" t="s">
+      <c r="A81" s="79" t="s">
         <v>1006</v>
       </c>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="77"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
     </row>
     <row r="82" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="95" t="s">
         <v>1007</v>
       </c>
-      <c r="B82" s="76"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="76"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
     </row>
     <row r="83" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="84" t="s">
         <v>1008</v>
       </c>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="76"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="76"/>
-      <c r="M83" s="76"/>
-      <c r="N83" s="76"/>
-      <c r="O83" s="76"/>
-      <c r="P83" s="76"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
     </row>
     <row r="84" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="80" t="s">
+      <c r="A84" s="79" t="s">
         <v>1009</v>
       </c>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="76"/>
-      <c r="K84" s="76"/>
-      <c r="L84" s="76"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="76"/>
-      <c r="O84" s="76"/>
-      <c r="P84" s="76"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
     </row>
     <row r="85" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="95" t="s">
         <v>1002</v>
       </c>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
-      <c r="P85" s="76"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
     </row>
     <row r="86" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="86" t="s">
+      <c r="A86" s="94" t="s">
         <v>1010</v>
       </c>
-      <c r="B86" s="76"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="76"/>
-      <c r="K86" s="76"/>
-      <c r="L86" s="76"/>
-      <c r="M86" s="76"/>
-      <c r="N86" s="76"/>
-      <c r="O86" s="76"/>
-      <c r="P86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="77"/>
+      <c r="N86" s="77"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="77"/>
     </row>
     <row r="87" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="95" t="s">
         <v>1004</v>
       </c>
-      <c r="B87" s="76"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="76"/>
-      <c r="K87" s="76"/>
-      <c r="L87" s="76"/>
-      <c r="M87" s="76"/>
-      <c r="N87" s="76"/>
-      <c r="O87" s="76"/>
-      <c r="P87" s="76"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
     </row>
     <row r="88" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="84" t="s">
         <v>1011</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="76"/>
-      <c r="K88" s="76"/>
-      <c r="L88" s="76"/>
-      <c r="M88" s="76"/>
-      <c r="N88" s="76"/>
-      <c r="O88" s="76"/>
-      <c r="P88" s="76"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="77"/>
     </row>
     <row r="89" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="79" t="s">
         <v>1012</v>
       </c>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="76"/>
-      <c r="M89" s="76"/>
-      <c r="N89" s="76"/>
-      <c r="O89" s="76"/>
-      <c r="P89" s="76"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
     </row>
     <row r="90" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="95" t="s">
         <v>1007</v>
       </c>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
-      <c r="K90" s="76"/>
-      <c r="L90" s="76"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="76"/>
-      <c r="O90" s="76"/>
-      <c r="P90" s="76"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
     </row>
     <row r="91" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="85" t="s">
+      <c r="A91" s="82" t="s">
         <v>1013</v>
       </c>
-      <c r="B91" s="76"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
-      <c r="K91" s="76"/>
-      <c r="L91" s="76"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="76"/>
-      <c r="O91" s="76"/>
-      <c r="P91" s="76"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="77"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
     </row>
     <row r="92" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="80" t="s">
         <v>1014</v>
       </c>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="76"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="76"/>
-      <c r="O92" s="76"/>
-      <c r="P92" s="76"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="77"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
     </row>
     <row r="93" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="80" t="s">
         <v>1015</v>
       </c>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="76"/>
-      <c r="J93" s="76"/>
-      <c r="K93" s="76"/>
-      <c r="L93" s="76"/>
-      <c r="M93" s="76"/>
-      <c r="N93" s="76"/>
-      <c r="O93" s="76"/>
-      <c r="P93" s="76"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
     </row>
     <row r="94" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="79" t="s">
+      <c r="A94" s="80" t="s">
         <v>1016</v>
       </c>
-      <c r="B94" s="76"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
-      <c r="I94" s="76"/>
-      <c r="J94" s="76"/>
-      <c r="K94" s="76"/>
-      <c r="L94" s="76"/>
-      <c r="M94" s="76"/>
-      <c r="N94" s="76"/>
-      <c r="O94" s="76"/>
-      <c r="P94" s="76"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="77"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
     </row>
     <row r="95" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="82" t="s">
         <v>1017</v>
       </c>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76"/>
-      <c r="I95" s="76"/>
-      <c r="J95" s="76"/>
-      <c r="K95" s="76"/>
-      <c r="L95" s="76"/>
-      <c r="M95" s="76"/>
-      <c r="N95" s="76"/>
-      <c r="O95" s="76"/>
-      <c r="P95" s="76"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="77"/>
+      <c r="N95" s="77"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="77"/>
     </row>
     <row r="96" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="79" t="s">
+      <c r="A96" s="80" t="s">
         <v>1018</v>
       </c>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76"/>
-      <c r="K96" s="76"/>
-      <c r="L96" s="76"/>
-      <c r="M96" s="76"/>
-      <c r="N96" s="76"/>
-      <c r="O96" s="76"/>
-      <c r="P96" s="76"/>
-    </row>
-    <row r="97" spans="1:20" s="71" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="79" t="s">
+      <c r="B96" s="77"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
+      <c r="L96" s="77"/>
+      <c r="M96" s="77"/>
+      <c r="N96" s="77"/>
+      <c r="O96" s="77"/>
+      <c r="P96" s="77"/>
+    </row>
+    <row r="97" spans="1:20" s="72" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A97" s="80" t="s">
         <v>1018</v>
       </c>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
-      <c r="F97" s="91"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="91"/>
-      <c r="I97" s="91"/>
-      <c r="J97" s="91"/>
-      <c r="K97" s="91"/>
-      <c r="L97" s="91"/>
-      <c r="M97" s="91"/>
-      <c r="N97" s="91"/>
-      <c r="O97" s="91"/>
-      <c r="P97" s="91"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="93"/>
+      <c r="P97" s="93"/>
     </row>
     <row r="98" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="85" t="s">
+      <c r="A98" s="82" t="s">
         <v>1019</v>
       </c>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="76"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="76"/>
-      <c r="I98" s="76"/>
-      <c r="J98" s="76"/>
-      <c r="K98" s="76"/>
-      <c r="L98" s="76"/>
-      <c r="M98" s="76"/>
-      <c r="N98" s="76"/>
-      <c r="O98" s="76"/>
-      <c r="P98" s="76"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="77"/>
+      <c r="L98" s="77"/>
+      <c r="M98" s="77"/>
+      <c r="N98" s="77"/>
+      <c r="O98" s="77"/>
+      <c r="P98" s="77"/>
     </row>
     <row r="99" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="83" t="s">
+      <c r="A99" s="84" t="s">
         <v>1020</v>
       </c>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="76"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="76"/>
-      <c r="K99" s="76"/>
-      <c r="L99" s="76"/>
-      <c r="M99" s="76"/>
-      <c r="N99" s="76"/>
-      <c r="O99" s="76"/>
-      <c r="P99" s="76"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="77"/>
+      <c r="M99" s="77"/>
+      <c r="N99" s="77"/>
+      <c r="O99" s="77"/>
+      <c r="P99" s="77"/>
     </row>
     <row r="100" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="79" t="s">
+      <c r="A100" s="80" t="s">
         <v>1021</v>
       </c>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="76"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="76"/>
-      <c r="O100" s="76"/>
-      <c r="P100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
     </row>
     <row r="101" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="79" t="s">
+      <c r="A101" s="80" t="s">
         <v>1022</v>
       </c>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
-      <c r="O101" s="76"/>
-      <c r="P101" s="76"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
     </row>
     <row r="102" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="79" t="s">
+      <c r="A102" s="80" t="s">
         <v>1023</v>
       </c>
-      <c r="B102" s="76"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="76"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
     </row>
     <row r="103" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="85" t="s">
+      <c r="A103" s="82" t="s">
         <v>1024</v>
       </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
     </row>
     <row r="104" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="83" t="s">
+      <c r="A104" s="84" t="s">
         <v>1025</v>
       </c>
-      <c r="B104" s="76"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="76"/>
-      <c r="M104" s="76"/>
-      <c r="N104" s="76"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
     </row>
     <row r="105" spans="1:20" s="70" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="79" t="s">
         <v>1026</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
     </row>
     <row r="106" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="79" t="s">
         <v>1027</v>
       </c>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
     </row>
     <row r="107" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="83" t="s">
+      <c r="A107" s="84" t="s">
         <v>1028</v>
       </c>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="76"/>
-      <c r="O107" s="76"/>
-      <c r="P107" s="76"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
     </row>
     <row r="108" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="81" t="s">
+      <c r="A108" s="100" t="s">
         <v>1029</v>
       </c>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
     </row>
     <row r="109" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="82" t="s">
+      <c r="A109" s="101" t="s">
         <v>1030</v>
       </c>
-      <c r="B109" s="76"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="76"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
     </row>
     <row r="110" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A110" s="83" t="s">
+      <c r="A110" s="84" t="s">
         <v>1031</v>
       </c>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
     </row>
     <row r="111" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="79" t="s">
+      <c r="A111" s="80" t="s">
         <v>1032</v>
       </c>
-      <c r="B111" s="76"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="76"/>
-      <c r="N111" s="76"/>
-      <c r="O111" s="76"/>
-      <c r="P111" s="76"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
     </row>
     <row r="112" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A112" s="55"/>
@@ -84696,6 +84700,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A47:R47"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="A41:R41"/>
+    <mergeCell ref="A42:R42"/>
+    <mergeCell ref="A43:R43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="A111:P111"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A109:P109"/>
+    <mergeCell ref="A110:P110"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A98:P98"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
     <mergeCell ref="A39:R39"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A76:P76"/>
@@ -84712,68 +84778,6 @@
     <mergeCell ref="A59:P59"/>
     <mergeCell ref="A75:P75"/>
     <mergeCell ref="A40:R40"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A111:P111"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A105:P105"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A109:P109"/>
-    <mergeCell ref="A110:P110"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A47:R47"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="A41:R41"/>
-    <mergeCell ref="A42:R42"/>
-    <mergeCell ref="A43:R43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="A45:R45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" fitToHeight="0" orientation="landscape"/>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/ok/trans/syvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED63BB5-4B1F-674A-AB99-E87AE3084029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3A56A-2DE2-3B4B-B6E9-6130BF8E8828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
